--- a/Results/Profit Ctab TAV R25.xlsx
+++ b/Results/Profit Ctab TAV R25.xlsx
@@ -1,19 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B11C8066CBDFECC583BA5D0E4D60F1E00AC07CB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E64BA53-ADB7-4E3B-B317-503E4355659C}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" windowHeight="13125" windowWidth="13125" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>Row_Names</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.1 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.1 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.2 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.2 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.3 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.3 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.4 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.4 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.5 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.5 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.6 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.6 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.7 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.7 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.8 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.8 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>0.9 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>0.9 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 4.6</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 6.4</t>
+  </si>
+  <si>
+    <t>1.0 Fixed 8.2</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 4.6</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 6.4</t>
+  </si>
+  <si>
+    <t>1.0 Tracking 8.2</t>
+  </si>
+  <si>
+    <t>Northern 0.5 17</t>
+  </si>
+  <si>
+    <t>Northern 0.5 20</t>
+  </si>
+  <si>
+    <t>Northern 0.5 23</t>
+  </si>
+  <si>
+    <t>Northern 1.0 17</t>
+  </si>
+  <si>
+    <t>Northern 1.0 20</t>
+  </si>
+  <si>
+    <t>Northern 1.0 23</t>
+  </si>
+  <si>
+    <t>Northern 1.5 17</t>
+  </si>
+  <si>
+    <t>Northern 1.5 20</t>
+  </si>
+  <si>
+    <t>Northern 1.5 23</t>
+  </si>
+  <si>
+    <t>Central 0.5 17</t>
+  </si>
+  <si>
+    <t>Central 0.5 20</t>
+  </si>
+  <si>
+    <t>Central 0.5 23</t>
+  </si>
+  <si>
+    <t>Central 1.0 17</t>
+  </si>
+  <si>
+    <t>Central 1.0 20</t>
+  </si>
+  <si>
+    <t>Central 1.0 23</t>
+  </si>
+  <si>
+    <t>Central 1.5 17</t>
+  </si>
+  <si>
+    <t>Central 1.5 20</t>
+  </si>
+  <si>
+    <t>Central 1.5 23</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 17</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 20</t>
+  </si>
+  <si>
+    <t>Black Belt 0.5 23</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 17</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 20</t>
+  </si>
+  <si>
+    <t>Black Belt 1.0 23</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 17</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 20</t>
+  </si>
+  <si>
+    <t>Black Belt 1.5 23</t>
+  </si>
+  <si>
+    <t>Southern 0.5 17</t>
+  </si>
+  <si>
+    <t>Southern 0.5 20</t>
+  </si>
+  <si>
+    <t>Southern 0.5 23</t>
+  </si>
+  <si>
+    <t>Southern 1.0 17</t>
+  </si>
+  <si>
+    <t>Southern 1.0 20</t>
+  </si>
+  <si>
+    <t>Southern 1.0 23</t>
+  </si>
+  <si>
+    <t>Southern 1.5 17</t>
+  </si>
+  <si>
+    <t>Southern 1.5 20</t>
+  </si>
+  <si>
+    <t>Southern 1.5 23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,74 +353,96 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:BI37" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:BI37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BI37" totalsRowShown="0">
+  <autoFilter ref="A1:BI37" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Black Belt 1.0 17"/>
+        <filter val="Black Belt 1.0 20"/>
+        <filter val="Central 1.0 17"/>
+        <filter val="Central 1.0 20"/>
+        <filter val="Northern 1.0 17"/>
+        <filter val="Northern 1.0 20"/>
+        <filter val="Southern 1.0 17"/>
+        <filter val="Southern 1.0 20"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="61">
-    <tableColumn id="1" name="Row_Names"/>
-    <tableColumn id="2" name="0.1 Fixed 4.6"/>
-    <tableColumn id="3" name="0.1 Fixed 6.4"/>
-    <tableColumn id="4" name="0.1 Fixed 8.2"/>
-    <tableColumn id="5" name="0.1 Tracking 4.6"/>
-    <tableColumn id="6" name="0.1 Tracking 6.4"/>
-    <tableColumn id="7" name="0.1 Tracking 8.2"/>
-    <tableColumn id="8" name="0.2 Fixed 4.6"/>
-    <tableColumn id="9" name="0.2 Fixed 6.4"/>
-    <tableColumn id="10" name="0.2 Fixed 8.2"/>
-    <tableColumn id="11" name="0.2 Tracking 4.6"/>
-    <tableColumn id="12" name="0.2 Tracking 6.4"/>
-    <tableColumn id="13" name="0.2 Tracking 8.2"/>
-    <tableColumn id="14" name="0.3 Fixed 4.6"/>
-    <tableColumn id="15" name="0.3 Fixed 6.4"/>
-    <tableColumn id="16" name="0.3 Fixed 8.2"/>
-    <tableColumn id="17" name="0.3 Tracking 4.6"/>
-    <tableColumn id="18" name="0.3 Tracking 6.4"/>
-    <tableColumn id="19" name="0.3 Tracking 8.2"/>
-    <tableColumn id="20" name="0.4 Fixed 4.6"/>
-    <tableColumn id="21" name="0.4 Fixed 6.4"/>
-    <tableColumn id="22" name="0.4 Fixed 8.2"/>
-    <tableColumn id="23" name="0.4 Tracking 4.6"/>
-    <tableColumn id="24" name="0.4 Tracking 6.4"/>
-    <tableColumn id="25" name="0.4 Tracking 8.2"/>
-    <tableColumn id="26" name="0.5 Fixed 4.6"/>
-    <tableColumn id="27" name="0.5 Fixed 6.4"/>
-    <tableColumn id="28" name="0.5 Fixed 8.2"/>
-    <tableColumn id="29" name="0.5 Tracking 4.6"/>
-    <tableColumn id="30" name="0.5 Tracking 6.4"/>
-    <tableColumn id="31" name="0.5 Tracking 8.2"/>
-    <tableColumn id="32" name="0.6 Fixed 4.6"/>
-    <tableColumn id="33" name="0.6 Fixed 6.4"/>
-    <tableColumn id="34" name="0.6 Fixed 8.2"/>
-    <tableColumn id="35" name="0.6 Tracking 4.6"/>
-    <tableColumn id="36" name="0.6 Tracking 6.4"/>
-    <tableColumn id="37" name="0.6 Tracking 8.2"/>
-    <tableColumn id="38" name="0.7 Fixed 4.6"/>
-    <tableColumn id="39" name="0.7 Fixed 6.4"/>
-    <tableColumn id="40" name="0.7 Fixed 8.2"/>
-    <tableColumn id="41" name="0.7 Tracking 4.6"/>
-    <tableColumn id="42" name="0.7 Tracking 6.4"/>
-    <tableColumn id="43" name="0.7 Tracking 8.2"/>
-    <tableColumn id="44" name="0.8 Fixed 4.6"/>
-    <tableColumn id="45" name="0.8 Fixed 6.4"/>
-    <tableColumn id="46" name="0.8 Fixed 8.2"/>
-    <tableColumn id="47" name="0.8 Tracking 4.6"/>
-    <tableColumn id="48" name="0.8 Tracking 6.4"/>
-    <tableColumn id="49" name="0.8 Tracking 8.2"/>
-    <tableColumn id="50" name="0.9 Fixed 4.6"/>
-    <tableColumn id="51" name="0.9 Fixed 6.4"/>
-    <tableColumn id="52" name="0.9 Fixed 8.2"/>
-    <tableColumn id="53" name="0.9 Tracking 4.6"/>
-    <tableColumn id="54" name="0.9 Tracking 6.4"/>
-    <tableColumn id="55" name="0.9 Tracking 8.2"/>
-    <tableColumn id="56" name="1.0 Fixed 4.6"/>
-    <tableColumn id="57" name="1.0 Fixed 6.4"/>
-    <tableColumn id="58" name="1.0 Fixed 8.2"/>
-    <tableColumn id="59" name="1.0 Tracking 4.6"/>
-    <tableColumn id="60" name="1.0 Tracking 6.4"/>
-    <tableColumn id="61" name="1.0 Tracking 8.2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Row_Names"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="0.1 Fixed 4.6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="0.1 Fixed 6.4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="0.1 Fixed 8.2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.1 Tracking 4.6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.1 Tracking 6.4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="0.1 Tracking 8.2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="0.2 Fixed 4.6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="0.2 Fixed 6.4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="0.2 Fixed 8.2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="0.2 Tracking 4.6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="0.2 Tracking 6.4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="0.2 Tracking 8.2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="0.3 Fixed 4.6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="0.3 Fixed 6.4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="0.3 Fixed 8.2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="0.3 Tracking 4.6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="0.3 Tracking 6.4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="0.3 Tracking 8.2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="0.4 Fixed 4.6"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="0.4 Fixed 6.4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="0.4 Fixed 8.2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="0.4 Tracking 4.6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="0.4 Tracking 6.4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="0.4 Tracking 8.2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="0.5 Fixed 4.6"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="0.5 Fixed 6.4"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="0.5 Fixed 8.2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="0.5 Tracking 4.6"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="0.5 Tracking 6.4"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="0.5 Tracking 8.2"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="0.6 Fixed 4.6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="0.6 Fixed 6.4"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="0.6 Fixed 8.2"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="0.6 Tracking 4.6"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="0.6 Tracking 6.4"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="0.6 Tracking 8.2"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="0.7 Fixed 4.6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="0.7 Fixed 6.4"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="0.7 Fixed 8.2"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="0.7 Tracking 4.6"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="0.7 Tracking 6.4"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="0.7 Tracking 8.2"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="0.8 Fixed 4.6"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="0.8 Fixed 6.4"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="0.8 Fixed 8.2"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="0.8 Tracking 4.6"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="0.8 Tracking 6.4"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="0.8 Tracking 8.2"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="0.9 Fixed 4.6"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="0.9 Fixed 6.4"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="0.9 Fixed 8.2"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="0.9 Tracking 4.6"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="0.9 Tracking 6.4"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="0.9 Tracking 8.2"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="1.0 Fixed 4.6"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="1.0 Fixed 6.4"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="1.0 Fixed 8.2"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="1.0 Tracking 4.6"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="1.0 Tracking 6.4"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="1.0 Tracking 8.2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,325 +764,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI37"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Row_Names</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0.1 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>0.1 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>0.2 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>0.2 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>0.3 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>0.3 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>0.4 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>0.4 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>0.5 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>0.5 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>0.6 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>0.6 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>0.7 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>0.7 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>0.8 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>0.8 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>0.9 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>0.9 Tracking 8.2</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 4.6</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 6.4</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>1.0 Fixed 8.2</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 4.6</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 6.4</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>1.0 Tracking 8.2</t>
-        </is>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Northern 0.5 17</t>
-        </is>
+    <row r="2" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
       <c r="B2">
         <v>-2879</v>
@@ -939,11 +1166,9 @@
         <v>-14282</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Northern 0.5 20</t>
-        </is>
+    <row r="3" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
       </c>
       <c r="B3">
         <v>-839</v>
@@ -1126,11 +1351,9 @@
         <v>-12242</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Northern 0.5 23</t>
-        </is>
+    <row r="4" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
       </c>
       <c r="B4">
         <v>1201</v>
@@ -1313,11 +1536,9 @@
         <v>-10202</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Northern 1.0 17</t>
-        </is>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
       </c>
       <c r="B5">
         <v>5191</v>
@@ -1500,11 +1721,9 @@
         <v>-6212</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Northern 1.0 20</t>
-        </is>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
       </c>
       <c r="B6">
         <v>9271</v>
@@ -1687,11 +1906,9 @@
         <v>-2132</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Northern 1.0 23</t>
-        </is>
+    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
       </c>
       <c r="B7">
         <v>13351</v>
@@ -1874,11 +2091,9 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Northern 1.5 17</t>
-        </is>
+    <row r="8" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
       </c>
       <c r="B8">
         <v>13261</v>
@@ -2061,11 +2276,9 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Northern 1.5 20</t>
-        </is>
+    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
       </c>
       <c r="B9">
         <v>19381</v>
@@ -2248,11 +2461,9 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Northern 1.5 23</t>
-        </is>
+    <row r="10" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
       </c>
       <c r="B10">
         <v>25501</v>
@@ -2435,11 +2646,9 @@
         <v>14098</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Central 0.5 17</t>
-        </is>
+    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
       </c>
       <c r="B11">
         <v>-2815</v>
@@ -2622,11 +2831,9 @@
         <v>-12831</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Central 0.5 20</t>
-        </is>
+    <row r="12" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
       </c>
       <c r="B12">
         <v>-775</v>
@@ -2809,11 +3016,9 @@
         <v>-10791</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Central 0.5 23</t>
-        </is>
+    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
       </c>
       <c r="B13">
         <v>1265</v>
@@ -2996,11 +3201,9 @@
         <v>-8751</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Central 1.0 17</t>
-        </is>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
       </c>
       <c r="B14">
         <v>5255</v>
@@ -3183,11 +3386,9 @@
         <v>-4761</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Central 1.0 20</t>
-        </is>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
       </c>
       <c r="B15">
         <v>9335</v>
@@ -3370,11 +3571,9 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Central 1.0 23</t>
-        </is>
+    <row r="16" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
       </c>
       <c r="B16">
         <v>13415</v>
@@ -3557,11 +3756,9 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Central 1.5 17</t>
-        </is>
+    <row r="17" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
       </c>
       <c r="B17">
         <v>13325</v>
@@ -3744,11 +3941,9 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Central 1.5 20</t>
-        </is>
+    <row r="18" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
       </c>
       <c r="B18">
         <v>19445</v>
@@ -3931,11 +4126,9 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Central 1.5 23</t>
-        </is>
+    <row r="19" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
       </c>
       <c r="B19">
         <v>25565</v>
@@ -4118,11 +4311,9 @@
         <v>15549</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 17</t>
-        </is>
+    <row r="20" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
       </c>
       <c r="B20">
         <v>-2773</v>
@@ -4305,11 +4496,9 @@
         <v>-12115</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 20</t>
-        </is>
+    <row r="21" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
       </c>
       <c r="B21">
         <v>-733</v>
@@ -4492,11 +4681,9 @@
         <v>-10075</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Black Belt 0.5 23</t>
-        </is>
+    <row r="22" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
       </c>
       <c r="B22">
         <v>1307</v>
@@ -4679,11 +4866,9 @@
         <v>-8035</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 17</t>
-        </is>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
       </c>
       <c r="B23">
         <v>5297</v>
@@ -4866,11 +5051,9 @@
         <v>-4045</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 20</t>
-        </is>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
       </c>
       <c r="B24">
         <v>9377</v>
@@ -5053,11 +5236,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Black Belt 1.0 23</t>
-        </is>
+    <row r="25" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
       </c>
       <c r="B25">
         <v>13457</v>
@@ -5240,11 +5421,9 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 17</t>
-        </is>
+    <row r="26" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
       </c>
       <c r="B26">
         <v>13367</v>
@@ -5427,11 +5606,9 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 20</t>
-        </is>
+    <row r="27" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
       </c>
       <c r="B27">
         <v>19487</v>
@@ -5614,11 +5791,9 @@
         <v>10145</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Black Belt 1.5 23</t>
-        </is>
+    <row r="28" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
       <c r="B28">
         <v>25607</v>
@@ -5801,11 +5976,9 @@
         <v>16265</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Southern 0.5 17</t>
-        </is>
+    <row r="29" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
       </c>
       <c r="B29">
         <v>-2757</v>
@@ -5988,11 +6161,9 @@
         <v>-11673</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Southern 0.5 20</t>
-        </is>
+    <row r="30" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
       </c>
       <c r="B30">
         <v>-717</v>
@@ -6175,11 +6346,9 @@
         <v>-9633</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Southern 0.5 23</t>
-        </is>
+    <row r="31" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
       </c>
       <c r="B31">
         <v>1323</v>
@@ -6362,11 +6531,9 @@
         <v>-7593</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Southern 1.0 17</t>
-        </is>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
       </c>
       <c r="B32">
         <v>5313</v>
@@ -6549,11 +6716,9 @@
         <v>-3603</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Southern 1.0 20</t>
-        </is>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
       </c>
       <c r="B33">
         <v>9393</v>
@@ -6736,11 +6901,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Southern 1.0 23</t>
-        </is>
+    <row r="34" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
       <c r="B34">
         <v>13473</v>
@@ -6923,11 +7086,9 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Southern 1.5 17</t>
-        </is>
+    <row r="35" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
       </c>
       <c r="B35">
         <v>13383</v>
@@ -7110,11 +7271,9 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Southern 1.5 20</t>
-        </is>
+    <row r="36" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
       <c r="B36">
         <v>19503</v>
@@ -7297,11 +7456,9 @@
         <v>10587</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Southern 1.5 23</t>
-        </is>
+    <row r="37" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
       </c>
       <c r="B37">
         <v>25623</v>
@@ -7485,7 +7642,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" gridLinesSet="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
